--- a/1_analysis/OUTPUT_figures_tables/Table_13_Cox_Model_Report_Stratification Unprotected, Protected and Incomplete.xlsx
+++ b/1_analysis/OUTPUT_figures_tables/Table_13_Cox_Model_Report_Stratification Unprotected, Protected and Incomplete.xlsx
@@ -1,46 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font>
+      <name val="SourceSansPro"/>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="SourceSansPro"/>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="SourceSansPro"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00007932"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00368f3f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c9c9c9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +81,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="number_format_style" xfId="1" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,980 +463,586 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>coef</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>exp(coef)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>se(coef)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;|z|)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lower .95</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>upper .95</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="1" ht="40" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Cox Model Report Stratification Unprotected, Protected and Incomplete</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Hazard Ratio</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Lower CI (95%)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Upper CI (95%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Vaccinated (Protected)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>-1.203729706096369</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="5" t="n">
         <v>0.300072938334101</v>
       </c>
-      <c r="D2">
-        <v>0.03730967243269891</v>
-      </c>
-      <c r="E2">
-        <v>-32.26320757084419</v>
-      </c>
-      <c r="F2">
-        <v>2.296629415715965e-228</v>
-      </c>
-      <c r="G2">
+      <c r="C3" s="5" t="n">
         <v>0.2789130148958406</v>
       </c>
-      <c r="H2">
+      <c r="D3" s="5" t="n">
         <v>0.3228381735936123</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Vaccinated (Incomplete)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-1.120598674975848</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="7" t="n">
         <v>0.3260845175344594</v>
       </c>
-      <c r="D3">
-        <v>0.04577494670931468</v>
-      </c>
-      <c r="E3">
-        <v>-24.48061124116654</v>
-      </c>
-      <c r="F3">
-        <v>2.376750972054187e-132</v>
-      </c>
-      <c r="G3">
+      <c r="C4" s="7" t="n">
         <v>0.2981030872521985</v>
       </c>
-      <c r="H3">
+      <c r="D4" s="7" t="n">
         <v>0.3566924232680753</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Sex Male</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.1026622540578839</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="5" t="n">
         <v>0.9024317146657357</v>
       </c>
-      <c r="D4">
-        <v>0.03120763039266463</v>
-      </c>
-      <c r="E4">
-        <v>-3.289652330733023</v>
-      </c>
-      <c r="F4">
-        <v>0.001003112428232568</v>
-      </c>
-      <c r="G4">
+      <c r="C5" s="5" t="n">
         <v>0.8488879453387564</v>
       </c>
-      <c r="H4">
+      <c r="D5" s="5" t="n">
         <v>0.9593527674722165</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.04984107085325981</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="7" t="n">
         <v>1.051104032033733</v>
       </c>
-      <c r="D5">
-        <v>0.001419030456593426</v>
-      </c>
-      <c r="E5">
-        <v>35.12332707284523</v>
-      </c>
-      <c r="F5">
-        <v>2.969688176582584e-270</v>
-      </c>
-      <c r="G5">
+      <c r="C6" s="7" t="n">
         <v>1.048184711988121</v>
       </c>
-      <c r="H5">
+      <c r="D6" s="7" t="n">
         <v>1.054031482735546</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Medical Center Type Regional</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.09794368039368484</v>
-      </c>
-      <c r="C6">
+      <c r="B7" s="5" t="n">
         <v>0.9066999673011723</v>
       </c>
-      <c r="D6">
-        <v>0.03580196436472816</v>
-      </c>
-      <c r="E6">
-        <v>-2.735706884569112</v>
-      </c>
-      <c r="F6">
-        <v>0.006224644449558941</v>
-      </c>
-      <c r="G6">
+      <c r="C7" s="5" t="n">
         <v>0.8452572660282816</v>
       </c>
-      <c r="H6">
+      <c r="D7" s="5" t="n">
         <v>0.9726090076301577</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Medical Center Type Specialty</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.1082198055817652</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="7" t="n">
         <v>0.8974303145570157</v>
       </c>
-      <c r="D7">
-        <v>0.03583877856678044</v>
-      </c>
-      <c r="E7">
-        <v>-3.019628734838522</v>
-      </c>
-      <c r="F7">
-        <v>0.002530847114837672</v>
-      </c>
-      <c r="G7">
+      <c r="C8" s="7" t="n">
         <v>0.8365554096984876</v>
       </c>
-      <c r="H7">
+      <c r="D8" s="7" t="n">
         <v>0.9627349965690627</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>ICU Stay</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.7087252834645072</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="5" t="n">
         <v>2.031400148172847</v>
       </c>
-      <c r="D8">
-        <v>0.03947955160882326</v>
-      </c>
-      <c r="E8">
-        <v>17.95170549267623</v>
-      </c>
-      <c r="F8">
-        <v>4.65390119378957e-72</v>
-      </c>
-      <c r="G8">
+      <c r="C9" s="5" t="n">
         <v>1.880141019094571</v>
       </c>
-      <c r="H8">
+      <c r="D9" s="5" t="n">
         <v>2.194828217717375</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Active Cancer</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.254943649514404</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="7" t="n">
         <v>1.290388904782724</v>
       </c>
-      <c r="D9">
-        <v>0.03507717835333478</v>
-      </c>
-      <c r="E9">
-        <v>7.268077464679156</v>
-      </c>
-      <c r="F9">
-        <v>3.646396822447637e-13</v>
-      </c>
-      <c r="G9">
+      <c r="C10" s="7" t="n">
         <v>1.204655511216651</v>
       </c>
-      <c r="H9">
+      <c r="D10" s="7" t="n">
         <v>1.382223805961484</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Asthma</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.08840883608942432</v>
-      </c>
-      <c r="C10">
+      <c r="B11" s="5" t="n">
         <v>0.9153865571505273</v>
       </c>
-      <c r="D10">
-        <v>0.04872454747603243</v>
-      </c>
-      <c r="E10">
-        <v>-1.814461922564033</v>
-      </c>
-      <c r="F10">
-        <v>0.06960663986968021</v>
-      </c>
-      <c r="G10">
+      <c r="C11" s="5" t="n">
         <v>0.8320130157895582</v>
       </c>
-      <c r="H10">
+      <c r="D11" s="5" t="n">
         <v>1.007114712282139</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Congestive Heart Failure</t>
         </is>
       </c>
-      <c r="B11">
-        <v>-0.06955625500366852</v>
-      </c>
-      <c r="C11">
+      <c r="B12" s="7" t="n">
         <v>0.932807656810379</v>
       </c>
-      <c r="D11">
-        <v>0.03453236524532406</v>
-      </c>
-      <c r="E11">
-        <v>-2.014233734339612</v>
-      </c>
-      <c r="F11">
-        <v>0.04398499947658538</v>
-      </c>
-      <c r="G11">
+      <c r="C12" s="7" t="n">
         <v>0.871762332072722</v>
       </c>
-      <c r="H11">
+      <c r="D12" s="7" t="n">
         <v>0.9981276921374069</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Chronic Liver</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.08187433432207565</v>
-      </c>
-      <c r="C12">
+      <c r="B13" s="5" t="n">
         <v>1.085319413859675</v>
       </c>
-      <c r="D12">
-        <v>0.04949583823418474</v>
-      </c>
-      <c r="E12">
-        <v>1.654166031792314</v>
-      </c>
-      <c r="F12">
-        <v>0.09809378253798344</v>
-      </c>
-      <c r="G12">
+      <c r="C13" s="5" t="n">
         <v>0.9849782433716568</v>
       </c>
-      <c r="H12">
+      <c r="D13" s="5" t="n">
         <v>1.195882485757862</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Chronic Kidney Disease</t>
         </is>
       </c>
-      <c r="B13">
-        <v>-0.1861706655686068</v>
-      </c>
-      <c r="C13">
+      <c r="B14" s="7" t="n">
         <v>0.830131907957638</v>
       </c>
-      <c r="D13">
-        <v>0.03728505328010573</v>
-      </c>
-      <c r="E13">
-        <v>-4.993171504141107</v>
-      </c>
-      <c r="F13">
-        <v>5.939576930870143e-07</v>
-      </c>
-      <c r="G13">
+      <c r="C14" s="7" t="n">
         <v>0.7716316137101759</v>
       </c>
-      <c r="H13">
+      <c r="D14" s="7" t="n">
         <v>0.8930673294941244</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition COPD</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.002464680193685098</v>
-      </c>
-      <c r="C14">
+      <c r="B15" s="5" t="n">
         <v>1.002467720014796</v>
       </c>
-      <c r="D14">
-        <v>0.03408459598392651</v>
-      </c>
-      <c r="E14">
-        <v>0.07231067649583944</v>
-      </c>
-      <c r="F14">
-        <v>0.942354668325798</v>
-      </c>
-      <c r="G14">
+      <c r="C15" s="5" t="n">
         <v>0.9376862254702255</v>
       </c>
-      <c r="H14">
+      <c r="D15" s="5" t="n">
         <v>1.071724743709135</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Dementia</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.03601379278251535</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="7" t="n">
         <v>1.036670144958165</v>
       </c>
-      <c r="D15">
-        <v>0.03463839802240647</v>
-      </c>
-      <c r="E15">
-        <v>1.039707227777081</v>
-      </c>
-      <c r="F15">
-        <v>0.2984759415909634</v>
-      </c>
-      <c r="G15">
+      <c r="C16" s="7" t="n">
         <v>0.9686264714146146</v>
       </c>
-      <c r="H15">
+      <c r="D16" s="7" t="n">
         <v>1.109493722464633</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Diabetes</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.01989361320350061</v>
-      </c>
-      <c r="C16">
+      <c r="B17" s="5" t="n">
         <v>1.020092809847597</v>
       </c>
-      <c r="D16">
-        <v>0.03191676884437919</v>
-      </c>
-      <c r="E16">
-        <v>0.6232965905946974</v>
-      </c>
-      <c r="F16">
-        <v>0.5330896378487812</v>
-      </c>
-      <c r="G16">
+      <c r="C17" s="5" t="n">
         <v>0.9582351189598114</v>
       </c>
-      <c r="H16">
+      <c r="D17" s="5" t="n">
         <v>1.085943647976869</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Hyperlipidemia</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.01818969585691271</v>
-      </c>
-      <c r="C17">
+      <c r="B18" s="7" t="n">
         <v>0.9819747381498196</v>
       </c>
-      <c r="D17">
-        <v>0.0297658141292613</v>
-      </c>
-      <c r="E17">
-        <v>-0.6110935107611023</v>
-      </c>
-      <c r="F17">
-        <v>0.5411376756162068</v>
-      </c>
-      <c r="G17">
+      <c r="C18" s="7" t="n">
         <v>0.9263254765657774</v>
       </c>
-      <c r="H17">
+      <c r="D18" s="7" t="n">
         <v>1.04096714465775</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Hypertension</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.07641086571741595</v>
-      </c>
-      <c r="C18">
+      <c r="B19" s="5" t="n">
         <v>1.079405973972034</v>
       </c>
-      <c r="D18">
-        <v>0.04048188582000094</v>
-      </c>
-      <c r="E18">
-        <v>1.887532267077922</v>
-      </c>
-      <c r="F18">
-        <v>0.05908877058219556</v>
-      </c>
-      <c r="G18">
+      <c r="C19" s="5" t="n">
         <v>0.9970721221032364</v>
       </c>
-      <c r="H18">
+      <c r="D19" s="5" t="n">
         <v>1.168538594970244</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Ischemic Heart Disease</t>
         </is>
       </c>
-      <c r="B19">
-        <v>0.08072770811387525</v>
-      </c>
-      <c r="C19">
+      <c r="B20" s="7" t="n">
         <v>1.084075671365613</v>
       </c>
-      <c r="D19">
-        <v>0.03839518696520751</v>
-      </c>
-      <c r="E19">
-        <v>2.102547597620195</v>
-      </c>
-      <c r="F19">
-        <v>0.03550533476641258</v>
-      </c>
-      <c r="G19">
+      <c r="C20" s="7" t="n">
         <v>1.00548953707464</v>
       </c>
-      <c r="H19">
+      <c r="D20" s="7" t="n">
         <v>1.168803869074537</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Obesity</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.07657282524372155</v>
-      </c>
-      <c r="C20">
+      <c r="B21" s="5" t="n">
         <v>1.079580808209923</v>
       </c>
-      <c r="D20">
-        <v>0.03572937018201945</v>
-      </c>
-      <c r="E20">
-        <v>2.14313392185839</v>
-      </c>
-      <c r="F20">
-        <v>0.03210234631189406</v>
-      </c>
-      <c r="G20">
+      <c r="C21" s="5" t="n">
         <v>1.006566008835967</v>
       </c>
-      <c r="H20">
+      <c r="D21" s="5" t="n">
         <v>1.157891992401983</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Stroke</t>
         </is>
       </c>
-      <c r="B21">
-        <v>-0.1073527172006409</v>
-      </c>
-      <c r="C21">
+      <c r="B22" s="7" t="n">
         <v>0.8982088034161841</v>
       </c>
-      <c r="D21">
-        <v>0.05536724757340747</v>
-      </c>
-      <c r="E21">
-        <v>-1.938920966918387</v>
-      </c>
-      <c r="F21">
-        <v>0.05251096246056466</v>
-      </c>
-      <c r="G21">
+      <c r="C22" s="7" t="n">
         <v>0.8058396284917926</v>
       </c>
-      <c r="H21">
+      <c r="D22" s="7" t="n">
         <v>1.001165772951994</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>C-Reactive Protein</t>
         </is>
       </c>
-      <c r="B22">
-        <v>0.001429284062665122</v>
-      </c>
-      <c r="C22">
+      <c r="B23" s="5" t="n">
         <v>1.001430305975941</v>
       </c>
-      <c r="D22">
-        <v>0.0001614666822481493</v>
-      </c>
-      <c r="E22">
-        <v>8.851882275431493</v>
-      </c>
-      <c r="F22">
-        <v>8.605544808937867e-19</v>
-      </c>
-      <c r="G22">
+      <c r="C23" s="5" t="n">
         <v>1.00111343458931</v>
       </c>
-      <c r="H22">
+      <c r="D23" s="5" t="n">
         <v>1.001747277658375</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Glucose</t>
         </is>
       </c>
-      <c r="B23">
-        <v>0.000667795607569984</v>
-      </c>
-      <c r="C23">
+      <c r="B24" s="7" t="n">
         <v>1.000668018632699</v>
       </c>
-      <c r="D23">
-        <v>0.0001678133685659893</v>
-      </c>
-      <c r="E23">
-        <v>3.979394569553536</v>
-      </c>
-      <c r="F23">
-        <v>6.909099117896268e-05</v>
-      </c>
-      <c r="G23">
+      <c r="C24" s="7" t="n">
         <v>1.000338944877895</v>
       </c>
-      <c r="H23">
+      <c r="D24" s="7" t="n">
         <v>1.000997200640347</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Hematocrit</t>
         </is>
       </c>
-      <c r="B24">
-        <v>-0.004516595211328067</v>
-      </c>
-      <c r="C24">
+      <c r="B25" s="5" t="n">
         <v>0.9954935892660002</v>
       </c>
-      <c r="D24">
-        <v>0.00164867483101507</v>
-      </c>
-      <c r="E24">
-        <v>-2.739530637795478</v>
-      </c>
-      <c r="F24">
-        <v>0.006152697998835112</v>
-      </c>
-      <c r="G24">
+      <c r="C25" s="5" t="n">
         <v>0.9922819994042669</v>
       </c>
-      <c r="H24">
+      <c r="D25" s="5" t="n">
         <v>0.9987155736621968</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Hemoglobin</t>
         </is>
       </c>
-      <c r="B25">
-        <v>0.1081346828861115</v>
-      </c>
-      <c r="C25">
+      <c r="B26" s="7" t="n">
         <v>1.114197798656659</v>
       </c>
-      <c r="D25">
-        <v>0.0424676560653715</v>
-      </c>
-      <c r="E25">
-        <v>2.546283287207024</v>
-      </c>
-      <c r="F25">
-        <v>0.01088767914973424</v>
-      </c>
-      <c r="G25">
+      <c r="C26" s="7" t="n">
         <v>1.025212190707606</v>
       </c>
-      <c r="H25">
+      <c r="D26" s="7" t="n">
         <v>1.210907113457654</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>Normalized Prothrombin Time - INR</t>
         </is>
       </c>
-      <c r="B26">
-        <v>0.03288026018249984</v>
-      </c>
-      <c r="C26">
+      <c r="B27" s="5" t="n">
         <v>1.033426789497393</v>
       </c>
-      <c r="D26">
-        <v>0.01262353237298405</v>
-      </c>
-      <c r="E26">
-        <v>2.604679832157578</v>
-      </c>
-      <c r="F26">
-        <v>0.009196014790931207</v>
-      </c>
-      <c r="G26">
+      <c r="C27" s="5" t="n">
         <v>1.008171799737184</v>
       </c>
-      <c r="H26">
+      <c r="D27" s="5" t="n">
         <v>1.059314423919906</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Lactate Dehydrogenase</t>
         </is>
       </c>
-      <c r="B27">
-        <v>0.0005312184201479455</v>
-      </c>
-      <c r="C27">
+      <c r="B28" s="7" t="n">
         <v>1.000531359541641</v>
       </c>
-      <c r="D27">
-        <v>3.666842367384358e-05</v>
-      </c>
-      <c r="E27">
-        <v>14.48708089753189</v>
-      </c>
-      <c r="F27">
-        <v>1.462262669030628e-47</v>
-      </c>
-      <c r="G27">
+      <c r="C28" s="7" t="n">
         <v>1.000459455147575</v>
       </c>
-      <c r="H27">
+      <c r="D28" s="7" t="n">
         <v>1.000603269103574</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>Mean Corpuscular Hemoglobin</t>
         </is>
       </c>
-      <c r="B28">
-        <v>-0.1542415441983782</v>
-      </c>
-      <c r="C28">
+      <c r="B29" s="5" t="n">
         <v>0.8570649769345046</v>
       </c>
-      <c r="D28">
-        <v>0.02064567009992412</v>
-      </c>
-      <c r="E28">
-        <v>-7.470890673533774</v>
-      </c>
-      <c r="F28">
-        <v>7.965381363212372e-14</v>
-      </c>
-      <c r="G28">
+      <c r="C29" s="5" t="n">
         <v>0.8230763485387728</v>
       </c>
-      <c r="H28">
+      <c r="D29" s="5" t="n">
         <v>0.8924571529625722</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Mean Corpuscular Volume</t>
         </is>
       </c>
-      <c r="B29">
-        <v>0.04260345611846543</v>
-      </c>
-      <c r="C29">
+      <c r="B30" s="7" t="n">
         <v>1.043524009732937</v>
       </c>
-      <c r="D29">
-        <v>0.004431391767741157</v>
-      </c>
-      <c r="E29">
-        <v>9.614012561155697</v>
-      </c>
-      <c r="F29">
-        <v>6.977559965485371e-22</v>
-      </c>
-      <c r="G29">
+      <c r="C30" s="7" t="n">
         <v>1.034499865151739</v>
       </c>
-      <c r="H29">
+      <c r="D30" s="7" t="n">
         <v>1.052626873691648</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>Neutrophil Percentage</t>
         </is>
       </c>
-      <c r="B30">
-        <v>0.01494360415682431</v>
-      </c>
-      <c r="C30">
+      <c r="B31" s="5" t="n">
         <v>1.01505581807277</v>
       </c>
-      <c r="D30">
-        <v>0.001422352785247237</v>
-      </c>
-      <c r="E30">
-        <v>10.50625717601191</v>
-      </c>
-      <c r="F30">
-        <v>8.083841643630097e-26</v>
-      </c>
-      <c r="G30">
+      <c r="C31" s="5" t="n">
         <v>1.012230026474286</v>
       </c>
-      <c r="H30">
+      <c r="D31" s="5" t="n">
         <v>1.01788949829138</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Platelet Count</t>
         </is>
       </c>
-      <c r="B31">
-        <v>-0.001039207422960325</v>
-      </c>
-      <c r="C31">
+      <c r="B32" s="7" t="n">
         <v>0.9989613323660732</v>
       </c>
-      <c r="D31">
-        <v>0.0001621192466000739</v>
-      </c>
-      <c r="E31">
-        <v>-6.410142193196272</v>
-      </c>
-      <c r="F31">
-        <v>1.453839759497464e-10</v>
-      </c>
-      <c r="G31">
+      <c r="C32" s="7" t="n">
         <v>0.998643964940064</v>
       </c>
-      <c r="H31">
+      <c r="D32" s="7" t="n">
         <v>0.9992788006509336</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>Red Blood Cell Count</t>
         </is>
       </c>
-      <c r="B32">
-        <v>-0.3602315049582007</v>
-      </c>
-      <c r="C32">
+      <c r="B33" s="5" t="n">
         <v>0.6975148292367066</v>
       </c>
-      <c r="D32">
-        <v>0.1282352851898564</v>
-      </c>
-      <c r="E32">
-        <v>-2.809144959009267</v>
-      </c>
-      <c r="F32">
-        <v>0.004967327480163951</v>
-      </c>
-      <c r="G32">
+      <c r="C33" s="5" t="n">
         <v>0.5424995378390114</v>
       </c>
-      <c r="H32">
+      <c r="D33" s="5" t="n">
         <v>0.8968246110275775</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Sodium</t>
         </is>
       </c>
-      <c r="B33">
-        <v>0.008752517097161603</v>
-      </c>
-      <c r="C33">
+      <c r="B34" s="7" t="n">
         <v>1.008790932369913</v>
       </c>
-      <c r="D33">
-        <v>0.002678224666174471</v>
-      </c>
-      <c r="E33">
-        <v>3.268029455371846</v>
-      </c>
-      <c r="F33">
-        <v>0.001082990939358308</v>
-      </c>
-      <c r="G33">
+      <c r="C34" s="7" t="n">
         <v>1.003509436912911</v>
       </c>
-      <c r="H33">
+      <c r="D34" s="7" t="n">
         <v>1.01410022447061</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>Urea</t>
         </is>
       </c>
-      <c r="B34">
-        <v>0.003800797573063276</v>
-      </c>
-      <c r="C34">
+      <c r="B35" s="5" t="n">
         <v>1.003808029763954</v>
       </c>
-      <c r="D34">
-        <v>0.0002919818245970195</v>
-      </c>
-      <c r="E34">
-        <v>13.01724029675124</v>
-      </c>
-      <c r="F34">
-        <v>9.763620516049866e-39</v>
-      </c>
-      <c r="G34">
+      <c r="C35" s="5" t="n">
         <v>1.003233741008605</v>
       </c>
-      <c r="H34">
+      <c r="D35" s="5" t="n">
         <v>1.004382647263803</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>